--- a/test/results/01.BasicCodonUsage/NS4B/NS4B.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS4B/NS4B.RSCU.xlsx
@@ -256,43 +256,43 @@
     <t>LC002520</t>
   </si>
   <si>
-    <t>KU955594</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>KF383118</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383115</t>
   </si>
   <si>
-    <t>KF268948</t>
+    <t>KF268949</t>
   </si>
   <si>
-    <t>KF268949</t>
+    <t>KF268948</t>
   </si>
   <si>
     <t>KF268950</t>
   </si>
   <si>
-    <t>KF383116</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>HQ234501</t>
   </si>
   <si>
-    <t>HQ234500</t>
+    <t>KF383116</t>
   </si>
   <si>
     <t>KU955595</t>
   </si>
   <si>
-    <t>KU955591</t>
+    <t>KU955592</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KU955591</t>
   </si>
   <si>
     <t>KX601166</t>
@@ -304,10 +304,10 @@
     <t>HQ234499</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>EU545988</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU681082</t>
   </si>
   <si>
     <t>KU955593</t>
@@ -319,10 +319,13 @@
     <t>KU681081</t>
   </si>
   <si>
+    <t>KX813683</t>
+  </si>
+  <si>
     <t>KX447517</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU744693</t>
   </si>
   <si>
     <t>KX197192</t>
@@ -331,22 +334,19 @@
     <t>KU321639</t>
   </si>
   <si>
-    <t>KU744693</t>
+    <t>KU509998</t>
   </si>
   <si>
-    <t>KU509998</t>
+    <t>KU527068</t>
   </si>
   <si>
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX673530</t>
   </si>
   <si>
-    <t>KU527068</t>
-  </si>
-  <si>
-    <t>KX673530</t>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KX838904</t>
@@ -376,19 +376,19 @@
     <t>KX056898</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU955590</t>
   </si>
   <si>
-    <t>KU955590</t>
+    <t>KX766028</t>
   </si>
   <si>
     <t>KU740184</t>
   </si>
   <si>
-    <t>KU761564</t>
+    <t>KU820898</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KU761564</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -397,10 +397,10 @@
     <t>KU365778</t>
   </si>
   <si>
-    <t>KU758877</t>
+    <t>KU937936</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU758877</t>
   </si>
   <si>
     <t>KU312312</t>
@@ -412,10 +412,10 @@
     <t>KU707826</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU365780</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU365777</t>
   </si>
   <si>
     <t>KU870645</t>
@@ -439,22 +439,22 @@
     <t>KX446950</t>
   </si>
   <si>
+    <t>KX247632</t>
+  </si>
+  <si>
     <t>KX446951</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KU940228</t>
   </si>
   <si>
     <t>KX520666</t>
   </si>
   <si>
-    <t>KU940228</t>
+    <t>KX197205</t>
   </si>
   <si>
     <t>KU729218</t>
-  </si>
-  <si>
-    <t>KX197205</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -472,19 +472,19 @@
     <t>KU922923</t>
   </si>
   <si>
-    <t>KX198135</t>
+    <t>KU922960</t>
   </si>
   <si>
-    <t>KU922960</t>
+    <t>KX198135</t>
   </si>
   <si>
     <t>KX702400</t>
   </si>
   <si>
-    <t>KX247646</t>
+    <t>KX087102</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KX247646</t>
   </si>
   <si>
     <t>KU820897</t>
@@ -493,16 +493,16 @@
     <t>KX156775</t>
   </si>
   <si>
+    <t>KX156776</t>
+  </si>
+  <si>
     <t>KX156774</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX447511</t>
   </si>
   <si>
-    <t>KX156776</t>
-  </si>
-  <si>
-    <t>KX447511</t>
+    <t>KX447510</t>
   </si>
   <si>
     <t>KX369547</t>
@@ -520,13 +520,13 @@
     <t>KU866423</t>
   </si>
   <si>
+    <t>KU955589</t>
+  </si>
+  <si>
     <t>KX266255</t>
   </si>
   <si>
     <t>KU820899</t>
-  </si>
-  <si>
-    <t>KU955589</t>
   </si>
   <si>
     <t>KX185891</t>
@@ -1413,10 +1413,10 @@
         <v>0.57</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N5">
         <v>2.29</v>
@@ -1452,22 +1452,22 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="Z5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AA5">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AB5">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AC5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AD5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AE5">
         <v>1.56</v>
@@ -1777,10 +1777,10 @@
         <v>0.57</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>2.29</v>
@@ -1816,22 +1816,22 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="Z7">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AA7">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AB7">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AC7">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AD7">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AE7">
         <v>1.56</v>
@@ -2114,13 +2114,13 @@
         <v>1.29</v>
       </c>
       <c r="C9">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="D9">
         <v>0.35</v>
       </c>
       <c r="E9">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2141,10 +2141,10 @@
         <v>0.57</v>
       </c>
       <c r="L9">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N9">
         <v>2.1</v>
@@ -2183,13 +2183,13 @@
         <v>1.56</v>
       </c>
       <c r="Z9">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
       <c r="AB9">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="AC9">
         <v>0.44</v>
@@ -2228,13 +2228,13 @@
         <v>0.55</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AP9">
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR9">
         <v>1.09</v>
@@ -2258,7 +2258,7 @@
         <v>1.29</v>
       </c>
       <c r="AY9">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="AZ9">
         <v>1.09</v>
@@ -2267,25 +2267,25 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="BC9">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="BD9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="BE9">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="BF9">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="BG9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:60">
@@ -2296,13 +2296,13 @@
         <v>1.29</v>
       </c>
       <c r="C10">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D10">
         <v>0.35</v>
       </c>
       <c r="E10">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2323,10 +2323,10 @@
         <v>0.57</v>
       </c>
       <c r="L10">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M10">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N10">
         <v>2.1</v>
@@ -2365,13 +2365,13 @@
         <v>1.56</v>
       </c>
       <c r="Z10">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="AA10">
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="AC10">
         <v>0.44</v>
@@ -2410,13 +2410,13 @@
         <v>0.55</v>
       </c>
       <c r="AO10">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AP10">
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AR10">
         <v>1.09</v>
@@ -2440,7 +2440,7 @@
         <v>1.29</v>
       </c>
       <c r="AY10">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AZ10">
         <v>1.09</v>
@@ -2449,25 +2449,25 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="BC10">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BD10">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="BE10">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="BF10">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="BG10">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="BH10">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2657,22 +2657,22 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="C12">
-        <v>1.06</v>
+        <v>1.37</v>
       </c>
       <c r="D12">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E12">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>0.86</v>
       </c>
       <c r="L12">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M12">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N12">
         <v>1.71</v>
@@ -2711,13 +2711,13 @@
         <v>1.33</v>
       </c>
       <c r="T12">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="U12">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="V12">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="W12">
         <v>0.89</v>
@@ -2768,10 +2768,10 @@
         <v>0.57</v>
       </c>
       <c r="AM12">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AN12">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AO12">
         <v>0</v>
@@ -2795,43 +2795,43 @@
         <v>1.6</v>
       </c>
       <c r="AV12">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AY12">
         <v>2.09</v>
       </c>
       <c r="AZ12">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="BC12">
         <v>0.47</v>
       </c>
       <c r="BD12">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="BE12">
         <v>2.35</v>
       </c>
       <c r="BF12">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="BG12">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="BH12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -3021,22 +3021,22 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="C14">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="D14">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="E14">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3051,10 +3051,10 @@
         <v>0.86</v>
       </c>
       <c r="L14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M14">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N14">
         <v>1.71</v>
@@ -3075,13 +3075,13 @@
         <v>1.33</v>
       </c>
       <c r="T14">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="U14">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="V14">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="W14">
         <v>0.89</v>
@@ -3132,10 +3132,10 @@
         <v>0.57</v>
       </c>
       <c r="AM14">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN14">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3159,43 +3159,43 @@
         <v>1.6</v>
       </c>
       <c r="AV14">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AW14">
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AY14">
         <v>2.09</v>
       </c>
       <c r="AZ14">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="BA14">
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="BC14">
         <v>0.47</v>
       </c>
       <c r="BD14">
-        <v>0.47</v>
+        <v>0.71</v>
       </c>
       <c r="BE14">
         <v>2.35</v>
       </c>
       <c r="BF14">
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
       <c r="BG14">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -4331,49 +4331,49 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="O21">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="P21">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="Q21">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="R21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="U21">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="V21">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="W21">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y21">
         <v>1.38</v>
       </c>
       <c r="Z21">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AA21">
         <v>1.85</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AC21">
         <v>0.46</v>
@@ -4388,40 +4388,40 @@
         <v>0.25</v>
       </c>
       <c r="AG21">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AH21">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AI21">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AK21">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AS21">
         <v>0.71</v>
@@ -4442,16 +4442,16 @@
         <v>0.71</v>
       </c>
       <c r="AY21">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AZ21">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="BA21">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BB21">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="BC21">
         <v>0.5</v>
@@ -4513,49 +4513,49 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="O22">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="P22">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="Q22">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="T22">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="U22">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="V22">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X22">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
         <v>1.38</v>
       </c>
       <c r="Z22">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA22">
         <v>1.85</v>
       </c>
       <c r="AB22">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AC22">
         <v>0.46</v>
@@ -4570,40 +4570,40 @@
         <v>0.25</v>
       </c>
       <c r="AG22">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AH22">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AJ22">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AK22">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AM22">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR22">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AS22">
         <v>0.71</v>
@@ -4624,16 +4624,16 @@
         <v>0.71</v>
       </c>
       <c r="AY22">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AZ22">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="BA22">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="BB22">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="BC22">
         <v>0.5</v>
@@ -5244,13 +5244,13 @@
         <v>1.71</v>
       </c>
       <c r="O26">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="P26">
         <v>1.14</v>
       </c>
       <c r="Q26">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="R26">
         <v>0.67</v>
@@ -5280,7 +5280,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AA26">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0.46</v>
       </c>
       <c r="AD26">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AE26">
         <v>1.75</v>
@@ -5355,13 +5355,13 @@
         <v>1.64</v>
       </c>
       <c r="AZ26">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="BA26">
         <v>0.36</v>
       </c>
       <c r="BB26">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="BC26">
         <v>0.5</v>
@@ -5426,13 +5426,13 @@
         <v>1.71</v>
       </c>
       <c r="O27">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="P27">
         <v>1.14</v>
       </c>
       <c r="Q27">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="R27">
         <v>0.67</v>
@@ -5462,7 +5462,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AA27">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0.46</v>
       </c>
       <c r="AD27">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AE27">
         <v>1.75</v>
@@ -5537,13 +5537,13 @@
         <v>1.64</v>
       </c>
       <c r="AZ27">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="BA27">
         <v>0.36</v>
       </c>
       <c r="BB27">
-        <v>1.09</v>
+        <v>0.91</v>
       </c>
       <c r="BC27">
         <v>0.5</v>
@@ -5569,16 +5569,16 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C28">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="D28">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E28">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5587,16 +5587,16 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="K28">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5662,16 +5662,16 @@
         <v>0.25</v>
       </c>
       <c r="AG28">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AH28">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AI28">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AJ28">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AK28">
         <v>1.14</v>
@@ -5683,7 +5683,7 @@
         <v>2.73</v>
       </c>
       <c r="AN28">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5692,49 +5692,49 @@
         <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR28">
         <v>1.09</v>
       </c>
       <c r="AS28">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT28">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AV28">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AW28">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AX28">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AY28">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AZ28">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="BA28">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="BB28">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="BC28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BD28">
         <v>1</v>
       </c>
       <c r="BE28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BF28">
         <v>0.25</v>
@@ -5910,13 +5910,13 @@
         <v>1.09</v>
       </c>
       <c r="BC29">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BD29">
         <v>1</v>
       </c>
       <c r="BE29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BF29">
         <v>0.25</v>
@@ -5933,16 +5933,16 @@
         <v>105</v>
       </c>
       <c r="B30">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C30">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="D30">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E30">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -5951,16 +5951,16 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="K30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -6026,16 +6026,16 @@
         <v>0.25</v>
       </c>
       <c r="AG30">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AH30">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AI30">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AJ30">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AK30">
         <v>1.14</v>
@@ -6047,7 +6047,7 @@
         <v>2.73</v>
       </c>
       <c r="AN30">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -6056,40 +6056,40 @@
         <v>0</v>
       </c>
       <c r="AQ30">
+        <v>1.09</v>
+      </c>
+      <c r="AR30">
+        <v>1.09</v>
+      </c>
+      <c r="AS30">
+        <v>0.71</v>
+      </c>
+      <c r="AT30">
+        <v>0.71</v>
+      </c>
+      <c r="AU30">
+        <v>1.76</v>
+      </c>
+      <c r="AV30">
+        <v>1.41</v>
+      </c>
+      <c r="AW30">
+        <v>0.35</v>
+      </c>
+      <c r="AX30">
+        <v>1.06</v>
+      </c>
+      <c r="AY30">
+        <v>1.45</v>
+      </c>
+      <c r="AZ30">
+        <v>0.91</v>
+      </c>
+      <c r="BA30">
         <v>0.55</v>
       </c>
-      <c r="AR30">
-        <v>1.09</v>
-      </c>
-      <c r="AS30">
-        <v>0.67</v>
-      </c>
-      <c r="AT30">
-        <v>0.67</v>
-      </c>
-      <c r="AU30">
-        <v>1.67</v>
-      </c>
-      <c r="AV30">
-        <v>1.33</v>
-      </c>
-      <c r="AW30">
-        <v>0.33</v>
-      </c>
-      <c r="AX30">
-        <v>1.33</v>
-      </c>
-      <c r="AY30">
-        <v>1.52</v>
-      </c>
-      <c r="AZ30">
-        <v>1.14</v>
-      </c>
-      <c r="BA30">
-        <v>0.57</v>
-      </c>
       <c r="BB30">
-        <v>0.76</v>
+        <v>1.09</v>
       </c>
       <c r="BC30">
         <v>0.5</v>
@@ -6333,13 +6333,13 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="O32">
         <v>0.76</v>
       </c>
       <c r="P32">
-        <v>1.14</v>
+        <v>0.95</v>
       </c>
       <c r="Q32">
         <v>0.38</v>
@@ -6351,13 +6351,13 @@
         <v>1.33</v>
       </c>
       <c r="T32">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="U32">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="V32">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="W32">
         <v>0.5</v>
@@ -6444,16 +6444,16 @@
         <v>1.06</v>
       </c>
       <c r="AY32">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AZ32">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="BA32">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="BB32">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="BC32">
         <v>0.5</v>
@@ -6479,10 +6479,10 @@
         <v>108</v>
       </c>
       <c r="B33">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C33">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="D33">
         <v>0.35</v>
@@ -6533,13 +6533,13 @@
         <v>1.33</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="W33">
         <v>0.5</v>
@@ -6626,13 +6626,13 @@
         <v>1.06</v>
       </c>
       <c r="AY33">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AZ33">
         <v>0.91</v>
       </c>
       <c r="BA33">
-        <v>0.36</v>
+        <v>0.55</v>
       </c>
       <c r="BB33">
         <v>1.09</v>
@@ -6661,10 +6661,10 @@
         <v>109</v>
       </c>
       <c r="B34">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C34">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="D34">
         <v>0.35</v>
@@ -6697,13 +6697,13 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="O34">
         <v>0.76</v>
       </c>
       <c r="P34">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="Q34">
         <v>0.38</v>
@@ -6715,13 +6715,13 @@
         <v>1.33</v>
       </c>
       <c r="T34">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>0.5</v>
@@ -6808,28 +6808,28 @@
         <v>1.06</v>
       </c>
       <c r="AY34">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="AZ34">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="BA34">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="BB34">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="BC34">
         <v>0.5</v>
       </c>
       <c r="BD34">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="BE34">
         <v>2.25</v>
       </c>
       <c r="BF34">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG34">
         <v>1.8</v>
@@ -7005,13 +7005,13 @@
         <v>0.5</v>
       </c>
       <c r="BD35">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="BE35">
         <v>2.25</v>
       </c>
       <c r="BF35">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG35">
         <v>1.8</v>
@@ -8750,10 +8750,10 @@
         <v>1.85</v>
       </c>
       <c r="AE45">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AF45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG45">
         <v>1.78</v>
@@ -8932,10 +8932,10 @@
         <v>1.85</v>
       </c>
       <c r="AE46">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AF46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG46">
         <v>1.78</v>
@@ -13282,13 +13282,13 @@
         <v>1.5</v>
       </c>
       <c r="Y70">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="Z70">
         <v>0.6899999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -13464,13 +13464,13 @@
         <v>1.5</v>
       </c>
       <c r="Y71">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="Z71">
         <v>0.6899999999999999</v>
       </c>
       <c r="AA71">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -14499,10 +14499,10 @@
         <v>1.18</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <v>1.75</v>
@@ -14580,13 +14580,13 @@
         <v>0.25</v>
       </c>
       <c r="AG77">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="AH77">
         <v>0.89</v>
       </c>
       <c r="AI77">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="AJ77">
         <v>0.44</v>
@@ -14681,10 +14681,10 @@
         <v>1.18</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <v>1.75</v>
@@ -14762,13 +14762,13 @@
         <v>0.25</v>
       </c>
       <c r="AG78">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AH78">
         <v>0.89</v>
       </c>
       <c r="AI78">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="AJ78">
         <v>0.44</v>

--- a/test/results/01.BasicCodonUsage/NS4B/NS4B.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS4B/NS4B.RSCU.xlsx
@@ -256,10 +256,10 @@
     <t>LC002520</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KF383118</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>KU955594</t>
@@ -280,10 +280,10 @@
     <t>HQ234500</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KF383116</t>
   </si>
   <si>
-    <t>KF383116</t>
+    <t>HQ234501</t>
   </si>
   <si>
     <t>KU955595</t>
@@ -304,10 +304,10 @@
     <t>HQ234499</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU681082</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>EU545988</t>
   </si>
   <si>
     <t>KU955593</t>
@@ -325,10 +325,10 @@
     <t>KX447517</t>
   </si>
   <si>
-    <t>KU744693</t>
+    <t>KX197192</t>
   </si>
   <si>
-    <t>KX197192</t>
+    <t>KU744693</t>
   </si>
   <si>
     <t>KU321639</t>
@@ -343,10 +343,10 @@
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX673530</t>
+    <t>KX838906</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX673530</t>
   </si>
   <si>
     <t>KX838904</t>
@@ -385,10 +385,10 @@
     <t>KU740184</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KU761564</t>
   </si>
   <si>
-    <t>KU761564</t>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -397,10 +397,10 @@
     <t>KU365778</t>
   </si>
   <si>
-    <t>KU937936</t>
+    <t>KU758877</t>
   </si>
   <si>
-    <t>KU758877</t>
+    <t>KU937936</t>
   </si>
   <si>
     <t>KU312312</t>
@@ -412,10 +412,10 @@
     <t>KU707826</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU365777</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU365780</t>
   </si>
   <si>
     <t>KU870645</t>
@@ -451,10 +451,10 @@
     <t>KX520666</t>
   </si>
   <si>
-    <t>KX197205</t>
+    <t>KU729218</t>
   </si>
   <si>
-    <t>KU729218</t>
+    <t>KX197205</t>
   </si>
   <si>
     <t>KU497555</t>
@@ -481,10 +481,10 @@
     <t>KX702400</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KX247646</t>
   </si>
   <si>
-    <t>KX247646</t>
+    <t>KX087102</t>
   </si>
   <si>
     <t>KU820897</t>
@@ -493,16 +493,16 @@
     <t>KX156775</t>
   </si>
   <si>
+    <t>KX156774</t>
+  </si>
+  <si>
     <t>KX156776</t>
   </si>
   <si>
-    <t>KX156774</t>
+    <t>KX447510</t>
   </si>
   <si>
     <t>KX447511</t>
-  </si>
-  <si>
-    <t>KX447510</t>
   </si>
   <si>
     <t>KX369547</t>
@@ -1383,16 +1383,16 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D5">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="E5">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1413,28 +1413,28 @@
         <v>0.57</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="O5">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="P5">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="Q5">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="R5">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T5">
         <v>0.88</v>
@@ -1452,22 +1452,22 @@
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="Z5">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AA5">
-        <v>2.89</v>
+        <v>2.79</v>
       </c>
       <c r="AB5">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AC5">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AD5">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="AE5">
         <v>1.56</v>
@@ -1554,10 +1554,10 @@
         <v>0.5</v>
       </c>
       <c r="BG5">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:60">
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C6">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D6">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E6">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -1595,28 +1595,28 @@
         <v>0.57</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="N6">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="O6">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="P6">
-        <v>0.55</v>
+        <v>0.38</v>
       </c>
       <c r="Q6">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S6">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="T6">
         <v>0.88</v>
@@ -1634,22 +1634,22 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="Z6">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AA6">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AB6">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AC6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AD6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AE6">
         <v>1.56</v>
@@ -1736,10 +1736,10 @@
         <v>0.5</v>
       </c>
       <c r="BG6">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -2893,13 +2893,13 @@
         <v>1.33</v>
       </c>
       <c r="T13">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="U13">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="V13">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="W13">
         <v>0.89</v>
@@ -2908,13 +2908,13 @@
         <v>1.11</v>
       </c>
       <c r="Y13">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="Z13">
         <v>0.67</v>
       </c>
       <c r="AA13">
-        <v>2.67</v>
+        <v>2.89</v>
       </c>
       <c r="AB13">
         <v>0.44</v>
@@ -3075,13 +3075,13 @@
         <v>1.33</v>
       </c>
       <c r="T14">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="U14">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="V14">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="W14">
         <v>0.89</v>
@@ -3090,13 +3090,13 @@
         <v>1.11</v>
       </c>
       <c r="Y14">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="Z14">
         <v>0.67</v>
       </c>
       <c r="AA14">
-        <v>2.89</v>
+        <v>2.67</v>
       </c>
       <c r="AB14">
         <v>0.44</v>
@@ -4331,49 +4331,49 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="O21">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="P21">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="Q21">
-        <v>0.57</v>
+        <v>0.38</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="T21">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="U21">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="V21">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X21">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Y21">
         <v>1.38</v>
       </c>
       <c r="Z21">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA21">
         <v>1.85</v>
       </c>
       <c r="AB21">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>0.46</v>
@@ -4388,40 +4388,40 @@
         <v>0.25</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AH21">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AJ21">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AK21">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AM21">
-        <v>2.5</v>
+        <v>2.73</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>0</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AR21">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AS21">
         <v>0.71</v>
@@ -4442,16 +4442,16 @@
         <v>0.71</v>
       </c>
       <c r="AY21">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="AZ21">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="BA21">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="BB21">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="BC21">
         <v>0.5</v>
@@ -4513,49 +4513,49 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="O22">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="P22">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="Q22">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="R22">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="U22">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="V22">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="W22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="X22">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y22">
         <v>1.38</v>
       </c>
       <c r="Z22">
-        <v>0.6899999999999999</v>
+        <v>0.46</v>
       </c>
       <c r="AA22">
         <v>1.85</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AC22">
         <v>0.46</v>
@@ -4570,40 +4570,40 @@
         <v>0.25</v>
       </c>
       <c r="AG22">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AI22">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AK22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="AN22">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP22">
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AS22">
         <v>0.71</v>
@@ -4624,16 +4624,16 @@
         <v>0.71</v>
       </c>
       <c r="AY22">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AZ22">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="BA22">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BB22">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="BC22">
         <v>0.5</v>
@@ -5569,16 +5569,16 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C28">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="D28">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E28">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -5587,16 +5587,16 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="K28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -5662,16 +5662,16 @@
         <v>0.25</v>
       </c>
       <c r="AG28">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AH28">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AI28">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="AJ28">
-        <v>0.8</v>
+        <v>0.44</v>
       </c>
       <c r="AK28">
         <v>1.14</v>
@@ -5683,7 +5683,7 @@
         <v>2.73</v>
       </c>
       <c r="AN28">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -5692,49 +5692,49 @@
         <v>0</v>
       </c>
       <c r="AQ28">
+        <v>1.09</v>
+      </c>
+      <c r="AR28">
+        <v>1.09</v>
+      </c>
+      <c r="AS28">
+        <v>0.71</v>
+      </c>
+      <c r="AT28">
+        <v>0.71</v>
+      </c>
+      <c r="AU28">
+        <v>1.76</v>
+      </c>
+      <c r="AV28">
+        <v>1.41</v>
+      </c>
+      <c r="AW28">
+        <v>0.35</v>
+      </c>
+      <c r="AX28">
+        <v>1.06</v>
+      </c>
+      <c r="AY28">
+        <v>1.45</v>
+      </c>
+      <c r="AZ28">
+        <v>0.91</v>
+      </c>
+      <c r="BA28">
         <v>0.55</v>
       </c>
-      <c r="AR28">
-        <v>1.09</v>
-      </c>
-      <c r="AS28">
-        <v>0.67</v>
-      </c>
-      <c r="AT28">
-        <v>0.67</v>
-      </c>
-      <c r="AU28">
-        <v>1.67</v>
-      </c>
-      <c r="AV28">
-        <v>1.33</v>
-      </c>
-      <c r="AW28">
-        <v>0.33</v>
-      </c>
-      <c r="AX28">
-        <v>1.33</v>
-      </c>
-      <c r="AY28">
-        <v>1.52</v>
-      </c>
-      <c r="AZ28">
-        <v>1.14</v>
-      </c>
-      <c r="BA28">
-        <v>0.57</v>
-      </c>
       <c r="BB28">
-        <v>0.76</v>
+        <v>1.09</v>
       </c>
       <c r="BC28">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="BD28">
         <v>1</v>
       </c>
       <c r="BE28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BF28">
         <v>0.25</v>
@@ -5751,16 +5751,16 @@
         <v>104</v>
       </c>
       <c r="B29">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C29">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="D29">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="E29">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5769,16 +5769,16 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -5844,16 +5844,16 @@
         <v>0.25</v>
       </c>
       <c r="AG29">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AH29">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AI29">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AJ29">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="AK29">
         <v>1.14</v>
@@ -5865,7 +5865,7 @@
         <v>2.73</v>
       </c>
       <c r="AN29">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -5874,49 +5874,49 @@
         <v>0</v>
       </c>
       <c r="AQ29">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AR29">
         <v>1.09</v>
       </c>
       <c r="AS29">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AV29">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AW29">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AX29">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="AY29">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AZ29">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="BA29">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="BB29">
-        <v>1.09</v>
+        <v>0.76</v>
       </c>
       <c r="BC29">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BD29">
         <v>1</v>
       </c>
       <c r="BE29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="BF29">
         <v>0.25</v>
@@ -6823,13 +6823,13 @@
         <v>0.5</v>
       </c>
       <c r="BD34">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="BE34">
         <v>2.25</v>
       </c>
       <c r="BF34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BG34">
         <v>1.8</v>
@@ -7005,13 +7005,13 @@
         <v>0.5</v>
       </c>
       <c r="BD35">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="BE35">
         <v>2.25</v>
       </c>
       <c r="BF35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="BG35">
         <v>1.8</v>
@@ -13282,13 +13282,13 @@
         <v>1.5</v>
       </c>
       <c r="Y70">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="Z70">
         <v>0.6899999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.38</v>
+        <v>1.85</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -13464,13 +13464,13 @@
         <v>1.5</v>
       </c>
       <c r="Y71">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="Z71">
         <v>0.6899999999999999</v>
       </c>
       <c r="AA71">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AB71">
         <v>0</v>
